--- a/MATERIAL/TABELAS_PROJETO_CONTROLE_DE_PROJETO.xlsx
+++ b/MATERIAL/TABELAS_PROJETO_CONTROLE_DE_PROJETO.xlsx
@@ -8,21 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexsandromonteiro/Desktop/Prog_Python/CONTROLE_DE_PROJETO/MATERIAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064E797E-5550-2949-9260-55607A34D502}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D564F9-F1DC-FA4A-ACF3-7543E3166547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{92A2CAB5-C429-4F3C-B787-3294A076791A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" activeTab="5" xr2:uid="{92A2CAB5-C429-4F3C-B787-3294A076791A}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECTS" sheetId="3" r:id="rId1"/>
     <sheet name="DISCIPLINAS" sheetId="7" r:id="rId2"/>
     <sheet name="MODELO_DOCUMENTO" sheetId="10" r:id="rId3"/>
-    <sheet name=" EMPLOYEES" sheetId="6" r:id="rId4"/>
-    <sheet name="COTATION_DOC" sheetId="4" r:id="rId5"/>
-    <sheet name="DOCUMENTATION" sheetId="9" r:id="rId6"/>
-    <sheet name="EMISSION" sheetId="5" r:id="rId7"/>
+    <sheet name="STATUS" sheetId="11" r:id="rId4"/>
+    <sheet name="ACAO" sheetId="12" r:id="rId5"/>
+    <sheet name="EMPLOYEES" sheetId="6" r:id="rId6"/>
+    <sheet name="COTATION_DOC" sheetId="4" r:id="rId7"/>
+    <sheet name="DOCUMENTATION" sheetId="9" r:id="rId8"/>
+    <sheet name="EMISSION" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ACAO!$A$1:$A$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DISCIPLINAS!$A$1:$A$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">STATUS!$A$1:$A$7</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="103">
   <si>
     <t>DISCIPLINA</t>
   </si>
@@ -283,6 +287,66 @@
   </si>
   <si>
     <t>CONTROLE DE ACESSO</t>
+  </si>
+  <si>
+    <t>EMISSOR</t>
+  </si>
+  <si>
+    <t>COMENTARIOS</t>
+  </si>
+  <si>
+    <t>Assistente de Documentação</t>
+  </si>
+  <si>
+    <t>Seiquem M. Rodrigues</t>
+  </si>
+  <si>
+    <t>ACAO</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Em Verificação</t>
+  </si>
+  <si>
+    <t>Em Aprovação</t>
+  </si>
+  <si>
+    <t>Em Emissão</t>
+  </si>
+  <si>
+    <t>Em Emitido</t>
+  </si>
+  <si>
+    <t>Emitido</t>
+  </si>
+  <si>
+    <t>Enviado Para Verificação</t>
+  </si>
+  <si>
+    <t>Enviado Para Aprovação</t>
+  </si>
+  <si>
+    <t>Enviado Para Emissão</t>
+  </si>
+  <si>
+    <t>Rejeitada Verificação</t>
+  </si>
+  <si>
+    <t>Rejeitada Aprovação</t>
+  </si>
+  <si>
+    <t>Rejeitada Emissão</t>
+  </si>
+  <si>
+    <t>DEVOLUÇÃO</t>
+  </si>
+  <si>
+    <t>INICIADO</t>
   </si>
 </sst>
 </file>
@@ -301,7 +365,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,6 +384,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -333,11 +409,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,7 +774,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1839DAF7-030D-45AE-AD13-8EAB12880189}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="141" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -739,11 +819,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A7" xr:uid="{B8789EC4-CEE6-9D47-8EDE-BC92AA86919C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A7">
-      <sortCondition ref="A1:A7"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -752,7 +827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF8CFC7-9B87-45CF-BF61-6351C0D3018D}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+    <sheetView zoomScale="200" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1232,17 +1307,133 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F304782-A0E5-4D12-B414-28BB2D70B7D1}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDD696C-C94A-8745-A771-94902AB5E634}">
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView zoomScale="141" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D96BEE-3F04-C646-A283-57BCA602F64B}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView zoomScale="141" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F304782-A0E5-4D12-B414-28BB2D70B7D1}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
@@ -1295,12 +1486,23 @@
         <v>2020151</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5">
+        <v>2020676</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CBC1FF-7632-4978-825F-95FACA9778B1}">
   <dimension ref="A1:I33"/>
   <sheetViews>
@@ -2284,12 +2486,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3063D7AB-AE70-4384-8FAC-EB43F8B9C3AF}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScale="168" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2301,7 +2503,7 @@
     <col min="5" max="5" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -2317,8 +2519,11 @@
       <c r="E1" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2334,8 +2539,11 @@
       <c r="E2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2351,8 +2559,11 @@
       <c r="E3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2368,8 +2579,11 @@
       <c r="E4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2385,8 +2599,11 @@
       <c r="E5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2402,8 +2619,11 @@
       <c r="E6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2419,8 +2639,11 @@
       <c r="E7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2436,8 +2659,11 @@
       <c r="E8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2453,8 +2679,11 @@
       <c r="E9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2470,8 +2699,11 @@
       <c r="E10" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2487,8 +2719,11 @@
       <c r="E11" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2504,8 +2739,11 @@
       <c r="E12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2521,8 +2759,11 @@
       <c r="E13" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2538,8 +2779,11 @@
       <c r="E14" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -2555,8 +2799,11 @@
       <c r="E15" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2572,8 +2819,11 @@
       <c r="E16" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2588,6 +2838,9 @@
       </c>
       <c r="E17" t="s">
         <v>81</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2596,27 +2849,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA889D1-7893-4DFB-BBDE-40709B2C155B}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView zoomScale="136" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -2626,20 +2881,32 @@
       <c r="C1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2650,20 +2917,28 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
         <v>46</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2674,20 +2949,28 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>43</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>44</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2698,20 +2981,28 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
         <v>46</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>43</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>44</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2722,20 +3013,28 @@
         <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>44</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2746,20 +3045,28 @@
         <v>33</v>
       </c>
       <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>43</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>44</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2770,20 +3077,28 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
         <v>43</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>44</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2794,44 +3109,61 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s">
         <v>46</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>43</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>44</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2842,20 +3174,28 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s">
         <v>46</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>43</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>44</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2866,20 +3206,28 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" t="s">
         <v>43</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>44</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2890,20 +3238,28 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" t="s">
         <v>46</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>43</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>44</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2914,20 +3270,28 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
         <v>46</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>43</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>44</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2938,20 +3302,28 @@
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" t="s">
         <v>43</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>44</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -2962,20 +3334,28 @@
         <v>34</v>
       </c>
       <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" t="s">
         <v>46</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>43</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>44</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2986,20 +3366,28 @@
         <v>36</v>
       </c>
       <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" t="s">
         <v>46</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>43</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>44</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -3010,18 +3398,26 @@
         <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" t="s">
         <v>43</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>44</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="J17" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/MATERIAL/TABELAS_PROJETO_CONTROLE_DE_PROJETO.xlsx
+++ b/MATERIAL/TABELAS_PROJETO_CONTROLE_DE_PROJETO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Visual_Studio\CONTROLE_DE_PROJETO\MATERIAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexsandromonteiro/Desktop/Prog_Python/CONTROLE_DE_PROJETO/MATERIAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B22B2E7-8703-46C2-B190-F33909A80167}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF51C870-1D8D-7842-A3BF-A7DD4A382C80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="2" activeTab="2" xr2:uid="{92A2CAB5-C429-4F3C-B787-3294A076791A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" firstSheet="2" activeTab="6" xr2:uid="{92A2CAB5-C429-4F3C-B787-3294A076791A}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECTS" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="116">
   <si>
     <t>DISCIPLINA</t>
   </si>
@@ -374,6 +374,18 @@
   </si>
   <si>
     <t>CUSTO_HH</t>
+  </si>
+  <si>
+    <t>2020001</t>
+  </si>
+  <si>
+    <t>2020454</t>
+  </si>
+  <si>
+    <t>2020151</t>
+  </si>
+  <si>
+    <t>2020676</t>
   </si>
 </sst>
 </file>
@@ -436,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -444,6 +456,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,14 +777,14 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -782,7 +795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -793,7 +806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -817,42 +830,42 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -866,19 +879,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF8CFC7-9B87-45CF-BF61-6351C0D3018D}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -892,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -906,7 +919,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -920,7 +933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -934,7 +947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -948,7 +961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -962,7 +975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -976,7 +989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -990,7 +1003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1004,7 +1017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1018,7 +1031,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1032,7 +1045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1046,7 +1059,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1060,7 +1073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1074,7 +1087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1088,7 +1101,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1102,7 +1115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1129,67 +1142,67 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -1207,27 +1220,27 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -1243,22 +1256,22 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="189" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -1269,48 +1282,48 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="C2">
-        <v>2020001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
       </c>
-      <c r="C3">
-        <v>2020454</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
       </c>
-      <c r="C4">
-        <v>2020151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
       </c>
-      <c r="C5">
-        <v>2020676</v>
+      <c r="C5" s="7" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1323,25 +1336,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CBC1FF-7632-4978-825F-95FACA9778B1}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView zoomScale="141" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -1376,7 +1389,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1411,7 +1424,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1446,7 +1459,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1481,7 +1494,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1516,7 +1529,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1551,7 +1564,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1586,7 +1599,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1621,7 +1634,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1656,7 +1669,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1691,7 +1704,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1726,7 +1739,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1761,7 +1774,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1796,7 +1809,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1831,7 +1844,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1866,7 +1879,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1901,7 +1914,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1936,7 +1949,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1971,7 +1984,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2006,7 +2019,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -2041,7 +2054,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2076,7 +2089,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -2111,7 +2124,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -2146,7 +2159,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -2181,7 +2194,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -2216,7 +2229,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2251,7 +2264,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -2286,7 +2299,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -2321,7 +2334,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -2356,7 +2369,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -2391,7 +2404,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -2426,7 +2439,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -2461,7 +2474,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -2507,19 +2520,19 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScale="168" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -2539,7 +2552,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2559,7 +2572,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2579,7 +2592,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2599,7 +2612,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2619,7 +2632,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2639,7 +2652,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2659,7 +2672,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2679,7 +2692,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2699,7 +2712,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2719,7 +2732,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2739,7 +2752,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2759,7 +2772,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2779,7 +2792,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2799,7 +2812,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -2819,7 +2832,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2839,7 +2852,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2873,22 +2886,22 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -2923,7 +2936,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2955,7 +2968,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2987,7 +3000,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3019,7 +3032,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3051,7 +3064,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3083,7 +3096,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3115,7 +3128,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3147,7 +3160,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -3180,7 +3193,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3212,7 +3225,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3244,7 +3257,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -3276,7 +3289,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -3308,7 +3321,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -3340,7 +3353,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -3372,7 +3385,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -3404,7 +3417,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>

--- a/MATERIAL/TABELAS_PROJETO_CONTROLE_DE_PROJETO.xlsx
+++ b/MATERIAL/TABELAS_PROJETO_CONTROLE_DE_PROJETO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexsandromonteiro/Desktop/Prog_Python/CONTROLE_DE_PROJETO/MATERIAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4006A49-E0FD-4F4C-BC63-D68680EB93BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC8BF6C-BC11-0F4E-9685-4B0376291BF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" firstSheet="2" activeTab="6" xr2:uid="{92A2CAB5-C429-4F3C-B787-3294A076791A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{92A2CAB5-C429-4F3C-B787-3294A076791A}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECTS" sheetId="3" r:id="rId1"/>
@@ -28,10 +28,19 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DISCIPLINAS!$A$1:$A$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">STATUS!$A$1:$A$7</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -773,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998DF3DB-5027-4BDE-BFB5-DA5C0F46C3FE}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1336,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CBC1FF-7632-4978-825F-95FACA9778B1}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="141" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1397,7 +1406,8 @@
         <v>30</v>
       </c>
       <c r="G2" s="1">
-        <v>3000</v>
+        <f>100</f>
+        <v>100</v>
       </c>
       <c r="H2" s="1">
         <v>3000</v>
@@ -1423,7 +1433,8 @@
         <v>30</v>
       </c>
       <c r="G3" s="1">
-        <v>3000</v>
+        <f>100</f>
+        <v>100</v>
       </c>
       <c r="H3" s="1">
         <v>3000</v>
@@ -1449,7 +1460,8 @@
         <v>30</v>
       </c>
       <c r="G4" s="1">
-        <v>1000</v>
+        <f>100</f>
+        <v>100</v>
       </c>
       <c r="H4" s="1">
         <v>1000</v>
@@ -1475,7 +1487,8 @@
         <v>25</v>
       </c>
       <c r="G5" s="1">
-        <v>500</v>
+        <f>100</f>
+        <v>100</v>
       </c>
       <c r="H5" s="1">
         <v>2500</v>
@@ -1501,6 +1514,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="1">
+        <f>100</f>
         <v>100</v>
       </c>
       <c r="H6" s="1">
@@ -1527,6 +1541,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="1">
+        <f>100</f>
         <v>100</v>
       </c>
       <c r="H7" s="1">
@@ -1553,6 +1568,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="1">
+        <f>100</f>
         <v>100</v>
       </c>
       <c r="H8" s="1">
@@ -1579,6 +1595,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="1">
+        <f>100</f>
         <v>100</v>
       </c>
       <c r="H9" s="1">
@@ -1605,7 +1622,8 @@
         <v>16</v>
       </c>
       <c r="G10" s="1">
-        <v>1500</v>
+        <f>100</f>
+        <v>100</v>
       </c>
       <c r="H10" s="1">
         <v>1500</v>
@@ -1631,7 +1649,8 @@
         <v>20</v>
       </c>
       <c r="G11" s="1">
-        <v>1500</v>
+        <f>100</f>
+        <v>100</v>
       </c>
       <c r="H11" s="1">
         <v>1500</v>
@@ -1657,7 +1676,8 @@
         <v>20</v>
       </c>
       <c r="G12" s="1">
-        <v>1000</v>
+        <f>100</f>
+        <v>100</v>
       </c>
       <c r="H12" s="1">
         <v>1000</v>
@@ -1683,7 +1703,8 @@
         <v>15</v>
       </c>
       <c r="G13" s="1">
-        <v>800</v>
+        <f>100</f>
+        <v>100</v>
       </c>
       <c r="H13" s="1">
         <v>800</v>
@@ -1709,7 +1730,8 @@
         <v>15</v>
       </c>
       <c r="G14" s="1">
-        <v>800</v>
+        <f>100</f>
+        <v>100</v>
       </c>
       <c r="H14" s="1">
         <v>800</v>
@@ -1735,7 +1757,8 @@
         <v>15</v>
       </c>
       <c r="G15" s="1">
-        <v>800</v>
+        <f>100</f>
+        <v>100</v>
       </c>
       <c r="H15" s="1">
         <v>800</v>
@@ -1761,7 +1784,8 @@
         <v>15</v>
       </c>
       <c r="G16" s="1">
-        <v>800</v>
+        <f>100</f>
+        <v>100</v>
       </c>
       <c r="H16" s="1">
         <v>800</v>
@@ -1787,7 +1811,8 @@
         <v>15</v>
       </c>
       <c r="G17" s="1">
-        <v>800</v>
+        <f>100</f>
+        <v>100</v>
       </c>
       <c r="H17" s="1">
         <v>800</v>
@@ -1813,7 +1838,8 @@
         <v>30</v>
       </c>
       <c r="G18" s="1">
-        <v>3000</v>
+        <f>100</f>
+        <v>100</v>
       </c>
       <c r="H18" s="1">
         <v>3000</v>
@@ -1839,7 +1865,8 @@
         <v>30</v>
       </c>
       <c r="G19" s="1">
-        <v>3000</v>
+        <f>100</f>
+        <v>100</v>
       </c>
       <c r="H19" s="1">
         <v>3000</v>
@@ -1865,7 +1892,8 @@
         <v>30</v>
       </c>
       <c r="G20" s="1">
-        <v>1000</v>
+        <f>100</f>
+        <v>100</v>
       </c>
       <c r="H20" s="1">
         <v>1000</v>
@@ -1891,7 +1919,8 @@
         <v>25</v>
       </c>
       <c r="G21" s="1">
-        <v>500</v>
+        <f>100</f>
+        <v>100</v>
       </c>
       <c r="H21" s="1">
         <v>2500</v>
@@ -1917,6 +1946,7 @@
         <v>8</v>
       </c>
       <c r="G22" s="1">
+        <f>100</f>
         <v>100</v>
       </c>
       <c r="H22" s="1">
@@ -1943,6 +1973,7 @@
         <v>16</v>
       </c>
       <c r="G23" s="1">
+        <f>100</f>
         <v>100</v>
       </c>
       <c r="H23" s="1">
@@ -1969,6 +2000,7 @@
         <v>8</v>
       </c>
       <c r="G24" s="1">
+        <f>100</f>
         <v>100</v>
       </c>
       <c r="H24" s="1">
@@ -1995,6 +2027,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="1">
+        <f>100</f>
         <v>100</v>
       </c>
       <c r="H25" s="1">
@@ -2021,7 +2054,8 @@
         <v>16</v>
       </c>
       <c r="G26" s="1">
-        <v>1500</v>
+        <f>100</f>
+        <v>100</v>
       </c>
       <c r="H26" s="1">
         <v>1500</v>
@@ -2047,7 +2081,8 @@
         <v>20</v>
       </c>
       <c r="G27" s="1">
-        <v>1500</v>
+        <f>100</f>
+        <v>100</v>
       </c>
       <c r="H27" s="1">
         <v>1500</v>
@@ -2073,7 +2108,8 @@
         <v>20</v>
       </c>
       <c r="G28" s="1">
-        <v>1000</v>
+        <f>100</f>
+        <v>100</v>
       </c>
       <c r="H28" s="1">
         <v>1000</v>
@@ -2099,7 +2135,8 @@
         <v>15</v>
       </c>
       <c r="G29" s="1">
-        <v>800</v>
+        <f>100</f>
+        <v>100</v>
       </c>
       <c r="H29" s="1">
         <v>800</v>
@@ -2125,7 +2162,8 @@
         <v>15</v>
       </c>
       <c r="G30" s="1">
-        <v>800</v>
+        <f>100</f>
+        <v>100</v>
       </c>
       <c r="H30" s="1">
         <v>800</v>
@@ -2151,7 +2189,8 @@
         <v>15</v>
       </c>
       <c r="G31" s="1">
-        <v>800</v>
+        <f>100</f>
+        <v>100</v>
       </c>
       <c r="H31" s="1">
         <v>800</v>
@@ -2177,7 +2216,8 @@
         <v>15</v>
       </c>
       <c r="G32" s="1">
-        <v>800</v>
+        <f>100</f>
+        <v>100</v>
       </c>
       <c r="H32" s="1">
         <v>800</v>
@@ -2203,7 +2243,8 @@
         <v>15</v>
       </c>
       <c r="G33" s="1">
-        <v>800</v>
+        <f>100</f>
+        <v>100</v>
       </c>
       <c r="H33" s="1">
         <v>800</v>
@@ -2583,7 +2624,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView zoomScale="136" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/MATERIAL/TABELAS_PROJETO_CONTROLE_DE_PROJETO.xlsx
+++ b/MATERIAL/TABELAS_PROJETO_CONTROLE_DE_PROJETO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexsandromonteiro/Desktop/Prog_Python/CONTROLE_DE_PROJETO/MATERIAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC8BF6C-BC11-0F4E-9685-4B0376291BF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2BE642-3D7D-C44F-A508-4184625341DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{92A2CAB5-C429-4F3C-B787-3294A076791A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" activeTab="6" xr2:uid="{92A2CAB5-C429-4F3C-B787-3294A076791A}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECTS" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="115">
   <si>
     <t>DISCIPLINA</t>
   </si>
@@ -380,9 +380,6 @@
   </si>
   <si>
     <t>CUSTO_DOC</t>
-  </si>
-  <si>
-    <t>CUSTO_HH</t>
   </si>
   <si>
     <t>2020001</t>
@@ -782,7 +779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998DF3DB-5027-4BDE-BFB5-DA5C0F46C3FE}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
+    <sheetView zoomScale="165" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1299,7 +1296,7 @@
         <v>49</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1310,7 +1307,7 @@
         <v>51</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1321,7 +1318,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1332,7 +1329,7 @@
         <v>84</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1343,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CBC1FF-7632-4978-825F-95FACA9778B1}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView zoomScale="141" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1356,11 +1353,11 @@
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -1380,13 +1377,10 @@
         <v>109</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1406,14 +1400,10 @@
         <v>30</v>
       </c>
       <c r="G2" s="1">
-        <f>100</f>
-        <v>100</v>
-      </c>
-      <c r="H2" s="1">
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1433,14 +1423,10 @@
         <v>30</v>
       </c>
       <c r="G3" s="1">
-        <f>100</f>
-        <v>100</v>
-      </c>
-      <c r="H3" s="1">
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1460,14 +1446,10 @@
         <v>30</v>
       </c>
       <c r="G4" s="1">
-        <f>100</f>
-        <v>100</v>
-      </c>
-      <c r="H4" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1487,14 +1469,10 @@
         <v>25</v>
       </c>
       <c r="G5" s="1">
-        <f>100</f>
-        <v>100</v>
-      </c>
-      <c r="H5" s="1">
         <v>2500</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1514,14 +1492,10 @@
         <v>8</v>
       </c>
       <c r="G6" s="1">
-        <f>100</f>
         <v>100</v>
       </c>
-      <c r="H6" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1541,14 +1515,10 @@
         <v>16</v>
       </c>
       <c r="G7" s="1">
-        <f>100</f>
         <v>100</v>
       </c>
-      <c r="H7" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1568,14 +1538,10 @@
         <v>8</v>
       </c>
       <c r="G8" s="1">
-        <f>100</f>
-        <v>100</v>
-      </c>
-      <c r="H8" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1595,14 +1561,10 @@
         <v>10</v>
       </c>
       <c r="G9" s="1">
-        <f>100</f>
-        <v>100</v>
-      </c>
-      <c r="H9" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1622,14 +1584,10 @@
         <v>16</v>
       </c>
       <c r="G10" s="1">
-        <f>100</f>
-        <v>100</v>
-      </c>
-      <c r="H10" s="1">
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1649,14 +1607,10 @@
         <v>20</v>
       </c>
       <c r="G11" s="1">
-        <f>100</f>
-        <v>100</v>
-      </c>
-      <c r="H11" s="1">
         <v>1500</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1676,14 +1630,10 @@
         <v>20</v>
       </c>
       <c r="G12" s="1">
-        <f>100</f>
-        <v>100</v>
-      </c>
-      <c r="H12" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1703,14 +1653,10 @@
         <v>15</v>
       </c>
       <c r="G13" s="1">
-        <f>100</f>
-        <v>100</v>
-      </c>
-      <c r="H13" s="1">
         <v>800</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1730,14 +1676,10 @@
         <v>15</v>
       </c>
       <c r="G14" s="1">
-        <f>100</f>
-        <v>100</v>
-      </c>
-      <c r="H14" s="1">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1757,14 +1699,10 @@
         <v>15</v>
       </c>
       <c r="G15" s="1">
-        <f>100</f>
-        <v>100</v>
-      </c>
-      <c r="H15" s="1">
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1784,14 +1722,10 @@
         <v>15</v>
       </c>
       <c r="G16" s="1">
-        <f>100</f>
-        <v>100</v>
-      </c>
-      <c r="H16" s="1">
         <v>800</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1811,14 +1745,10 @@
         <v>15</v>
       </c>
       <c r="G17" s="1">
-        <f>100</f>
-        <v>100</v>
-      </c>
-      <c r="H17" s="1">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1838,14 +1768,10 @@
         <v>30</v>
       </c>
       <c r="G18" s="1">
-        <f>100</f>
-        <v>100</v>
-      </c>
-      <c r="H18" s="1">
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1865,14 +1791,10 @@
         <v>30</v>
       </c>
       <c r="G19" s="1">
-        <f>100</f>
-        <v>100</v>
-      </c>
-      <c r="H19" s="1">
         <v>3000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1892,14 +1814,10 @@
         <v>30</v>
       </c>
       <c r="G20" s="1">
-        <f>100</f>
-        <v>100</v>
-      </c>
-      <c r="H20" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1919,14 +1837,10 @@
         <v>25</v>
       </c>
       <c r="G21" s="1">
-        <f>100</f>
-        <v>100</v>
-      </c>
-      <c r="H21" s="1">
         <v>2500</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1946,14 +1860,10 @@
         <v>8</v>
       </c>
       <c r="G22" s="1">
-        <f>100</f>
         <v>100</v>
       </c>
-      <c r="H22" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1973,14 +1883,10 @@
         <v>16</v>
       </c>
       <c r="G23" s="1">
-        <f>100</f>
         <v>100</v>
       </c>
-      <c r="H23" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -2000,14 +1906,10 @@
         <v>8</v>
       </c>
       <c r="G24" s="1">
-        <f>100</f>
-        <v>100</v>
-      </c>
-      <c r="H24" s="1">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -2027,14 +1929,10 @@
         <v>10</v>
       </c>
       <c r="G25" s="1">
-        <f>100</f>
-        <v>100</v>
-      </c>
-      <c r="H25" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2054,14 +1952,10 @@
         <v>16</v>
       </c>
       <c r="G26" s="1">
-        <f>100</f>
-        <v>100</v>
-      </c>
-      <c r="H26" s="1">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -2081,14 +1975,10 @@
         <v>20</v>
       </c>
       <c r="G27" s="1">
-        <f>100</f>
-        <v>100</v>
-      </c>
-      <c r="H27" s="1">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -2108,14 +1998,10 @@
         <v>20</v>
       </c>
       <c r="G28" s="1">
-        <f>100</f>
-        <v>100</v>
-      </c>
-      <c r="H28" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -2135,14 +2021,10 @@
         <v>15</v>
       </c>
       <c r="G29" s="1">
-        <f>100</f>
-        <v>100</v>
-      </c>
-      <c r="H29" s="1">
         <v>800</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -2162,14 +2044,10 @@
         <v>15</v>
       </c>
       <c r="G30" s="1">
-        <f>100</f>
-        <v>100</v>
-      </c>
-      <c r="H30" s="1">
         <v>800</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -2189,14 +2067,10 @@
         <v>15</v>
       </c>
       <c r="G31" s="1">
-        <f>100</f>
-        <v>100</v>
-      </c>
-      <c r="H31" s="1">
         <v>800</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -2216,14 +2090,10 @@
         <v>15</v>
       </c>
       <c r="G32" s="1">
-        <f>100</f>
-        <v>100</v>
-      </c>
-      <c r="H32" s="1">
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -2243,10 +2113,6 @@
         <v>15</v>
       </c>
       <c r="G33" s="1">
-        <f>100</f>
-        <v>100</v>
-      </c>
-      <c r="H33" s="1">
         <v>800</v>
       </c>
     </row>

--- a/MATERIAL/TABELAS_PROJETO_CONTROLE_DE_PROJETO.xlsx
+++ b/MATERIAL/TABELAS_PROJETO_CONTROLE_DE_PROJETO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Visual_Studio\CONTROLE_DE_PROJETO\MATERIAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Visual_Studio\CONTROLE_DE_PROJETO\media_files\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9079B0-B9C3-4D8F-9347-D2570E23523A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861E8B16-27C3-4E21-8419-F81336E78E59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{92A2CAB5-C429-4F3C-B787-3294A076791A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{92A2CAB5-C429-4F3C-B787-3294A076791A}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECTS" sheetId="3" r:id="rId1"/>
@@ -453,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -462,6 +462,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1822,332 +1831,465 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF8CFC7-9B87-45CF-BF61-6351C0D3018D}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
-        <v>59</v>
+      <c r="B2" s="10">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="10">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
-        <v>60</v>
+      <c r="B3" s="10">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="10">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
-        <v>61</v>
+      <c r="B4" s="10">
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="10">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
-        <v>62</v>
+      <c r="B5" s="10">
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="10">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
-        <v>70</v>
+      <c r="B6" s="10">
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
-        <v>70</v>
+      <c r="B7" s="10">
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="10">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
-        <v>63</v>
+      <c r="B8" s="10">
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="10">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
-        <v>63</v>
+      <c r="B9" s="10">
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="10">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
-        <v>63</v>
+      <c r="B10" s="10">
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
-        <v>63</v>
+      <c r="B11" s="10">
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="10">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
-        <v>63</v>
+      <c r="B12" s="10">
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="10">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
-        <v>65</v>
+      <c r="B13" s="10">
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="10">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
-        <v>66</v>
+      <c r="B14" s="10">
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="10">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
-        <v>67</v>
+      <c r="B15" s="10">
+        <v>9</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="10">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
-        <v>68</v>
+      <c r="B16" s="10">
+        <v>10</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="10">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
-        <v>69</v>
+      <c r="B17" s="10">
+        <v>11</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="10">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914ACCC7-57C5-4605-96A6-2AB8F18CA087}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>69</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2157,10 +2299,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD2B4B9-0CB7-418E-9D4A-EBABC54FF03B}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2168,29 +2310,41 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2400,8 +2554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CBC1FF-7632-4978-825F-95FACA9778B1}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView zoomScale="141" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MATERIAL/TABELAS_PROJETO_CONTROLE_DE_PROJETO.xlsx
+++ b/MATERIAL/TABELAS_PROJETO_CONTROLE_DE_PROJETO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexsandromonteiro/Desktop/Prog_Python/CONTROLE_DE_PROJETO/MATERIAL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Visual_Studio\CONTROLE_DE_PROJETO\MATERIAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE43FAE-D370-D440-B8AE-F5287F460A93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E108435E-F9D8-4CF1-B85F-9BA8472D5AF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" activeTab="2" xr2:uid="{92A2CAB5-C429-4F3C-B787-3294A076791A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{92A2CAB5-C429-4F3C-B787-3294A076791A}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECTS" sheetId="3" r:id="rId1"/>
@@ -28,29 +28,20 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">ACAO!$A$1:$A$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DISCIPLINAS!$A$1:$A$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DISCIPLINAS!$A$1:$A$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">STATUS!$A$1:$A$7</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="119">
   <si>
     <t>DISCIPLINA</t>
   </si>
@@ -404,6 +395,9 @@
   </si>
   <si>
     <t>FORMATO</t>
+  </si>
+  <si>
+    <t>INSTRUMENTAÇÃO</t>
   </si>
 </sst>
 </file>
@@ -804,14 +798,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -822,7 +816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -833,7 +827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -857,18 +851,18 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -894,7 +888,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -920,7 +914,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -946,7 +940,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -972,7 +966,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -998,7 +992,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1024,7 +1018,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1050,7 +1044,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1076,7 +1070,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1102,7 +1096,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1128,7 +1122,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1154,7 +1148,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1180,7 +1174,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1206,7 +1200,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1232,7 +1226,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1258,7 +1252,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1284,7 +1278,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1310,7 +1304,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1336,7 +1330,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1362,7 +1356,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1388,7 +1382,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1414,7 +1408,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1440,7 +1434,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1466,7 +1460,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1492,7 +1486,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1518,7 +1512,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1544,7 +1538,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1570,7 +1564,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1596,7 +1590,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1622,7 +1616,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1648,7 +1642,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1674,7 +1668,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1700,7 +1694,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1740,22 +1734,22 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -1790,7 +1784,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1822,7 +1816,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1854,7 +1848,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1886,7 +1880,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1918,7 +1912,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1950,7 +1944,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1982,7 +1976,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2014,7 +2008,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -2047,7 +2041,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2079,7 +2073,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2111,7 +2105,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2143,7 +2137,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2175,7 +2169,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2207,7 +2201,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -2239,7 +2233,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2271,7 +2265,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2317,16 +2311,16 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -2346,7 +2340,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2366,7 +2360,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2386,7 +2380,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2406,7 +2400,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2426,7 +2420,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2446,7 +2440,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2466,7 +2460,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2486,7 +2480,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2506,7 +2500,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2526,7 +2520,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2546,7 +2540,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2566,7 +2560,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2586,7 +2580,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2606,7 +2600,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -2626,7 +2620,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2646,7 +2640,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2674,49 +2668,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1839DAF7-030D-45AE-AD13-8EAB12880189}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView zoomScale="141" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2729,20 +2728,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF8CFC7-9B87-45CF-BF61-6351C0D3018D}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -2756,7 +2755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2779,7 +2778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2802,7 +2801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2825,7 +2824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -2848,7 +2847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -2871,7 +2870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -2894,7 +2893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2917,7 +2916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2940,7 +2939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2963,7 +2962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -2986,7 +2985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -3009,7 +3008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -3032,7 +3031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -3055,7 +3054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -3078,7 +3077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -3101,7 +3100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -3136,17 +3135,17 @@
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3154,7 +3153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3162,7 +3161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3183,17 +3182,17 @@
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -3201,7 +3200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -3209,7 +3208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -3217,7 +3216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -3225,7 +3224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -3233,7 +3232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -3241,7 +3240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -3249,7 +3248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -3257,7 +3256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -3265,7 +3264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -3273,7 +3272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -3294,17 +3293,17 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3312,7 +3311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3320,7 +3319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -3328,7 +3327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3349,67 +3348,67 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -3427,27 +3426,27 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -3466,19 +3465,19 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -3489,7 +3488,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>104</v>
       </c>
@@ -3500,7 +3499,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>105</v>
       </c>
@@ -3511,7 +3510,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>106</v>
       </c>
@@ -3522,7 +3521,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>107</v>
       </c>
